--- a/FMSapi_test v1.0/FMS接口.xlsx
+++ b/FMSapi_test v1.0/FMS接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="157">
   <si>
     <t>功能</t>
   </si>
@@ -424,6 +424,12 @@
     <t>{"cookie":"username=2|1:0|10:1565933869|8:username|4:ZGV2|1a8418e48b008340cf53d338f3085098f1349003a4a984c03b65e7280d47fc9e; userid='2|1:0|10:1565933869|6:userid|4:Mg==|c96070cf9ea41a922930b4d9340be76ab2e053634326689d4de847679d906ddc'","token":"ZGV2LDE1Njg4NjQ0NDY4MDIsZjM3NmFmMTkzZTUwOTczMWU5OTY5ZjFlNjFjZTlmZTM="}</t>
   </si>
   <si>
+    <t>{"cookie":"username=2|1:0|10:1565933869|8:username|4:ZGV2|1a8418e48b008340cf53d338f3085098f1349003a4a984c03b65e7280d47fc9e; userid='2|1:0|10:1565933869|6:userid|4:Mg==|c96070cf9ea41a922930b4d9340be76ab2e053634326689d4de847679d906ddc'","token":"YWRtaW4sMTg4NTg3NzIwMDYyNiw3MDlhOWZhMTliMGZiM2U3NDA2YTliODJjYmE2YTlhYg=="}</t>
+  </si>
+  <si>
+    <t>{"cookie":"username=2|1:0|10:1565933869|8:username|4:ZGV2|1a8418e48b008340cf53d338f3085098f1349003a4a984c03b65e7280d47fc9e; userid='2|1:0|10:1565933869|6:userid|4:Mg==|c96070cf9ea41a922930b4d9340be76ab2e053634326689d4de847679d906ddc'","token":"YWRtaW4sMTU3MzQ0NDI2MzQ0MCxhODkyNmU3OTY1ZTY2OWYwZDM5ZjExNjcyNDllM2Y0Zg=="}</t>
+  </si>
+  <si>
     <t>{"username":"admin","password":"admin"}</t>
   </si>
   <si>
@@ -439,13 +445,16 @@
     <t>{"command_type":"CMD_VEHICLE_ONLINE_ALL","vehicle_id":"","param1":"","param2":""}</t>
   </si>
   <si>
-    <t>{"mission":[{"type":"move","destination":2,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":2,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":7,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0},{"type":"move","destination":8,"map_id":112,"action_name":"","is_preinstall":1,"action_id":0,"action_param1":0,"action_param2":0}],"id":"611575992632213504","upper_id":"","order_type":"NORMAL","priority":0,"is_appoint_enable":0,"appoint_vehicle_id":0,"appoint_execute_time":"1970-01-01 00:00:00","execute_time":"1970-01-01 00:00:00","execute_vehicle_id":0,"order_state":"QUEUEING","vehicle_type":1,"done_time":"1970-01-01 00:00:00","move_type":"TASK_MOVE_NONE","source":"FMS","shelf_id":"","act_height":0,"task_status":0,"start_station_name":"--","end_station_name":"--","is_active":1,"reason":"","distance":0,"eta":0,"executing_index":-1,"user_id":38,"template_id":0,"cargo_id":0,"create_time":"2019-08-15 15:04:39"}</t>
+    <t>{"mission":[{"type":"move","destination":1,"map_id":6,"action_id":0,"action_param1":0,"action_param2":0}],"priority":0,"vehicle_type":1,"handle_type":"single"}</t>
   </si>
   <si>
     <t>{"command_type":"CMD_ORDER_CANCEL"}</t>
   </si>
   <si>
     <t>{"state":"ACTIVE","area_name":"{randomstr}","comment":"{randomstr}{randomstr}"}</t>
+  </si>
+  <si>
+    <t>{"distance":"0","elevator_ip":"","map_from_id":"3","map_from_name":"20190412","map_to_id":"5","map_to_name":"simlongxing","station_from":"1","station_from_action":"4","station_to":"3","station_to_action":"2"}</t>
   </si>
   <si>
     <t>{"map_id":"{map_id}","station_no":"{randomnum3}","station_type":"STANDBY","priority":"10"}</t>
@@ -873,7 +882,7 @@
         <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -918,7 +927,7 @@
         <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -935,7 +944,7 @@
         <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -963,7 +972,7 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1019,10 +1028,10 @@
         <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1067,7 +1076,7 @@
         <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1140,7 +1149,7 @@
         <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1213,7 +1222,7 @@
         <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1272,7 +1281,7 @@
         <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1372,6 +1381,9 @@
       <c r="D36" t="s">
         <v>135</v>
       </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
@@ -1415,7 +1427,7 @@
         <v>135</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1446,7 +1458,7 @@
         <v>135</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1561,7 +1573,7 @@
         <v>135</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1578,7 +1590,7 @@
         <v>135</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1637,7 +1649,7 @@
         <v>135</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1654,7 +1666,7 @@
         <v>135</v>
       </c>
       <c r="F55" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1713,7 +1725,7 @@
         <v>135</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1786,7 +1798,7 @@
         <v>135</v>
       </c>
       <c r="F64" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1803,7 +1815,7 @@
         <v>135</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1848,7 +1860,7 @@
         <v>135</v>
       </c>
       <c r="F68" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1865,7 +1877,7 @@
         <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1882,7 +1894,7 @@
         <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:6">
